--- a/Raw/noACmm + ads13.xlsx
+++ b/Raw/noACmm + ads13.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gpvru\py_repo\melt_curve_proc\Fine experiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gpvru\py_repo\melt_curve_proc\Raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A9F93A1-6A0E-45FF-9739-A54CA013F814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944C2268-8C9C-4097-A472-99F342EDCF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A5EE34F6-D14D-4A77-96C5-65B6BD59452A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>T</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>pH 8.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Info </t>
   </si>
 </sst>
 </file>
@@ -90,7 +93,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -113,13 +116,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -436,15 +451,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC800E3-AA73-4224-80BE-4AC1C61165F8}">
-  <dimension ref="A1:I302"/>
+  <dimension ref="A1:S302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1048576"/>
+      <selection activeCell="K1" sqref="K1:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,8 +487,43 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="str">
+        <f>CONCATENATE($K1,B1)</f>
+        <v>Info pH 5.0</v>
+      </c>
+      <c r="M1" t="str">
+        <f t="shared" ref="M1:S1" si="0">CONCATENATE($K1,C1)</f>
+        <v>Info pH 5.5</v>
+      </c>
+      <c r="N1" t="str">
+        <f t="shared" si="0"/>
+        <v>Info pH 6.0</v>
+      </c>
+      <c r="O1" t="str">
+        <f t="shared" si="0"/>
+        <v>Info pH 6.5</v>
+      </c>
+      <c r="P1" t="str">
+        <f t="shared" si="0"/>
+        <v>Info pH 7.0</v>
+      </c>
+      <c r="Q1" t="str">
+        <f t="shared" si="0"/>
+        <v>Info pH 7.5</v>
+      </c>
+      <c r="R1" t="str">
+        <f t="shared" si="0"/>
+        <v>Info pH 8.0</v>
+      </c>
+      <c r="S1" t="str">
+        <f t="shared" si="0"/>
+        <v>Info pH 8.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
@@ -502,7 +552,7 @@
         <v>186640.921875</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5.3</v>
       </c>
@@ -531,7 +581,7 @@
         <v>190267.46875</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5.6</v>
       </c>
@@ -559,8 +609,32 @@
       <c r="I4">
         <v>192738.40625</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>-3.1721201750000004E-2</v>
+      </c>
+      <c r="M4">
+        <v>-3.1694010500000001E-2</v>
+      </c>
+      <c r="N4">
+        <v>-2.9934073500000002E-2</v>
+      </c>
+      <c r="O4">
+        <v>-3.1624968125E-2</v>
+      </c>
+      <c r="P4">
+        <v>-2.845498825E-2</v>
+      </c>
+      <c r="Q4">
+        <v>-2.7900707124999997E-2</v>
+      </c>
+      <c r="R4">
+        <v>-2.4962796374999999E-2</v>
+      </c>
+      <c r="S4">
+        <v>-2.5240118857142856E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5.9</v>
       </c>
@@ -589,7 +663,7 @@
         <v>195210.75</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6.2</v>
       </c>
@@ -617,8 +691,32 @@
       <c r="I6">
         <v>196725.9375</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>12.94157146875</v>
+      </c>
+      <c r="M6">
+        <v>13.093469957142858</v>
+      </c>
+      <c r="N6">
+        <v>12.867688251250001</v>
+      </c>
+      <c r="O6">
+        <v>13.15140494125</v>
+      </c>
+      <c r="P6">
+        <v>12.995899881249999</v>
+      </c>
+      <c r="Q6">
+        <v>12.808208632500001</v>
+      </c>
+      <c r="R6">
+        <v>12.581833996249999</v>
+      </c>
+      <c r="S6">
+        <v>12.550418217142859</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6.5</v>
       </c>
@@ -647,7 +745,7 @@
         <v>198086.84375</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6.8</v>
       </c>
@@ -676,7 +774,7 @@
         <v>198837.5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7.1</v>
       </c>
@@ -705,7 +803,7 @@
         <v>199733.921875</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7.4</v>
       </c>
@@ -734,7 +832,7 @@
         <v>200305</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7.6999999999999993</v>
       </c>
@@ -763,7 +861,7 @@
         <v>200924</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -792,7 +890,7 @@
         <v>201333.84375</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8.3000000000000007</v>
       </c>
@@ -821,7 +919,7 @@
         <v>200572.15625</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8.6</v>
       </c>
@@ -850,7 +948,7 @@
         <v>200970.03125</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8.9</v>
       </c>
@@ -879,7 +977,7 @@
         <v>200924.078125</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>9.1999999999999993</v>
       </c>
